--- a/SasquatchCAIRS/SasquatchCAIRS/ReportTemplate.xlsx
+++ b/SasquatchCAIRS/SasquatchCAIRS/ReportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="21075" windowHeight="8190"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="19440" windowHeight="8190" tabRatio="704"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,19 +109,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -140,484 +140,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$12:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$13:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$16:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$17:$H$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -631,11 +166,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="132143360"/>
-        <c:axId val="132157440"/>
+        <c:axId val="168243200"/>
+        <c:axId val="168244736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132143360"/>
+        <c:axId val="168243200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132157440"/>
+        <c:crossAx val="168244736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132157440"/>
+        <c:axId val="168244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132143360"/>
+        <c:crossAx val="168243200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -686,20 +221,2555 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet10!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet10!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171062400"/>
+        <c:axId val="171063936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171062400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171063936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171063936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171062400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet11!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet11!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet11!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet11!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet11!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet11!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171101568"/>
+        <c:axId val="171107456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171101568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171107456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171107456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171101568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet12!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet12!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet12!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet12!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet12!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet12!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171169664"/>
+        <c:axId val="171171200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171169664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171171200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171171200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171169664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet13!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet13!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet13!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet13!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet13!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet13!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171286912"/>
+        <c:axId val="171288448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171286912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171288448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171288448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171286912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet14!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet14!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet14!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet14!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet14!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet14!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171358848"/>
+        <c:axId val="171360640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171358848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171360640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171360640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171358848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet15!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet15!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet15!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet15!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet15!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet15!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="171648128"/>
+        <c:axId val="171649664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="171648128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171649664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171649664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171648128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="169822464"/>
+        <c:axId val="169824256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="169822464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="169824256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="169824256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="169822464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170459904"/>
+        <c:axId val="170461440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170459904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170461440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170461440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170459904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170511360"/>
+        <c:axId val="170525440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170511360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170525440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170525440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170511360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170568320"/>
+        <c:axId val="170578304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170568320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170578304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170578304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170568320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170640896"/>
+        <c:axId val="170642432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170640896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170642432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170642432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170640896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170680320"/>
+        <c:axId val="170681856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170680320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170681856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170681856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170680320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet8!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet8!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170942848"/>
+        <c:axId val="170944384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170942848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170944384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="170944384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170942848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet9!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet9!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="170986112"/>
+        <c:axId val="171004288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170986112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171004288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171004288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170986112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1010,9 +3080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1030,6 +3098,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1042,6 +3111,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1054,6 +3124,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1066,6 +3137,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1078,6 +3150,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1090,6 +3163,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1102,6 +3176,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1114,6 +3189,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1126,6 +3202,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1138,6 +3215,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1150,6 +3228,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1162,6 +3241,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1174,6 +3254,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1186,5 +3267,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SasquatchCAIRS/SasquatchCAIRS/ReportTemplate.xlsx
+++ b/SasquatchCAIRS/SasquatchCAIRS/ReportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="19440" windowHeight="8190" tabRatio="704"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -109,7 +109,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -118,7 +118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:f>Sheet1!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -131,7 +131,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -140,7 +140,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -149,7 +149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:f>Sheet1!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -166,11 +166,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="168243200"/>
-        <c:axId val="168244736"/>
+        <c:axId val="92962816"/>
+        <c:axId val="92964352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168243200"/>
+        <c:axId val="92962816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -180,7 +180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168244736"/>
+        <c:crossAx val="92964352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -188,7 +188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168244736"/>
+        <c:axId val="92964352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -199,7 +199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168243200"/>
+        <c:crossAx val="92962816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -247,7 +247,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet10!$A$2</c:f>
+              <c:f>Sheet10!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -256,7 +256,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet10!$B$1:$D$1</c:f>
+              <c:f>Sheet10!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -265,7 +265,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet10!$B$2:$D$2</c:f>
+              <c:f>Sheet10!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -278,7 +278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet10!$A$3</c:f>
+              <c:f>Sheet10!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -287,7 +287,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet10!$B$1:$D$1</c:f>
+              <c:f>Sheet10!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -296,7 +296,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet10!$B$3:$D$3</c:f>
+              <c:f>Sheet10!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -313,11 +313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171062400"/>
-        <c:axId val="171063936"/>
+        <c:axId val="99714176"/>
+        <c:axId val="99715712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171062400"/>
+        <c:axId val="99714176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171063936"/>
+        <c:crossAx val="99715712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -335,7 +335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171063936"/>
+        <c:axId val="99715712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171062400"/>
+        <c:crossAx val="99714176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -393,7 +393,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet11!$A$2</c:f>
+              <c:f>Sheet11!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -402,7 +402,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet11!$B$1:$D$1</c:f>
+              <c:f>Sheet11!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -411,7 +411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet11!$B$2:$D$2</c:f>
+              <c:f>Sheet11!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -424,7 +424,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet11!$A$3</c:f>
+              <c:f>Sheet11!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -433,7 +433,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet11!$B$1:$D$1</c:f>
+              <c:f>Sheet11!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -442,7 +442,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet11!$B$3:$D$3</c:f>
+              <c:f>Sheet11!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -459,11 +459,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171101568"/>
-        <c:axId val="171107456"/>
+        <c:axId val="100019584"/>
+        <c:axId val="100025472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171101568"/>
+        <c:axId val="100019584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171107456"/>
+        <c:crossAx val="100025472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -481,7 +481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171107456"/>
+        <c:axId val="100025472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171101568"/>
+        <c:crossAx val="100019584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -539,7 +539,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet12!$A$2</c:f>
+              <c:f>Sheet12!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -548,7 +548,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet12!$B$1:$D$1</c:f>
+              <c:f>Sheet12!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -557,7 +557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet12!$B$2:$D$2</c:f>
+              <c:f>Sheet12!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -570,7 +570,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet12!$A$3</c:f>
+              <c:f>Sheet12!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -579,7 +579,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet12!$B$1:$D$1</c:f>
+              <c:f>Sheet12!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -588,7 +588,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet12!$B$3:$D$3</c:f>
+              <c:f>Sheet12!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -605,11 +605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171169664"/>
-        <c:axId val="171171200"/>
+        <c:axId val="99768192"/>
+        <c:axId val="99769728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171169664"/>
+        <c:axId val="99768192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171171200"/>
+        <c:crossAx val="99769728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171171200"/>
+        <c:axId val="99769728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171169664"/>
+        <c:crossAx val="99768192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -685,7 +685,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet13!$A$2</c:f>
+              <c:f>Sheet13!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -694,7 +694,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet13!$B$1:$D$1</c:f>
+              <c:f>Sheet13!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -703,7 +703,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet13!$B$2:$D$2</c:f>
+              <c:f>Sheet13!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -716,7 +716,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet13!$A$3</c:f>
+              <c:f>Sheet13!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -725,7 +725,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet13!$B$1:$D$1</c:f>
+              <c:f>Sheet13!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -734,7 +734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet13!$B$3:$D$3</c:f>
+              <c:f>Sheet13!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -751,11 +751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171286912"/>
-        <c:axId val="171288448"/>
+        <c:axId val="99807616"/>
+        <c:axId val="99809152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171286912"/>
+        <c:axId val="99807616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171288448"/>
+        <c:crossAx val="99809152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171288448"/>
+        <c:axId val="99809152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171286912"/>
+        <c:crossAx val="99807616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -831,7 +831,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet14!$A$2</c:f>
+              <c:f>Sheet14!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -840,7 +840,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet14!$B$1:$D$1</c:f>
+              <c:f>Sheet14!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -849,7 +849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet14!$B$2:$D$2</c:f>
+              <c:f>Sheet14!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -862,7 +862,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet14!$A$3</c:f>
+              <c:f>Sheet14!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -871,7 +871,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet14!$B$1:$D$1</c:f>
+              <c:f>Sheet14!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -880,7 +880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet14!$B$3:$D$3</c:f>
+              <c:f>Sheet14!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -897,11 +897,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171358848"/>
-        <c:axId val="171360640"/>
+        <c:axId val="99953280"/>
+        <c:axId val="99955072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171358848"/>
+        <c:axId val="99953280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171360640"/>
+        <c:crossAx val="99955072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171360640"/>
+        <c:axId val="99955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171358848"/>
+        <c:crossAx val="99953280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -977,7 +977,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet15!$A$2</c:f>
+              <c:f>Sheet15!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -986,7 +986,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet15!$B$1:$D$1</c:f>
+              <c:f>Sheet15!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -995,7 +995,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet15!$B$2:$D$2</c:f>
+              <c:f>Sheet15!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1008,7 +1008,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet15!$A$3</c:f>
+              <c:f>Sheet15!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1017,7 +1017,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet15!$B$1:$D$1</c:f>
+              <c:f>Sheet15!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1026,7 +1026,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet15!$B$3:$D$3</c:f>
+              <c:f>Sheet15!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1043,11 +1043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="171648128"/>
-        <c:axId val="171649664"/>
+        <c:axId val="99980416"/>
+        <c:axId val="99981952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171648128"/>
+        <c:axId val="99980416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171649664"/>
+        <c:crossAx val="99981952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1065,7 +1065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171649664"/>
+        <c:axId val="99981952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,14 +1076,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171648128"/>
+        <c:crossAx val="99980416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1124,7 +1123,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$2</c:f>
+              <c:f>Sheet2!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1133,7 +1132,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:f>Sheet2!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1142,7 +1141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$D$2</c:f>
+              <c:f>Sheet2!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1155,7 +1154,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$3</c:f>
+              <c:f>Sheet2!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1164,7 +1163,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:f>Sheet2!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1173,7 +1172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$D$3</c:f>
+              <c:f>Sheet2!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1190,11 +1189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169822464"/>
-        <c:axId val="169824256"/>
+        <c:axId val="92911872"/>
+        <c:axId val="92913664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169822464"/>
+        <c:axId val="92911872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169824256"/>
+        <c:crossAx val="92913664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169824256"/>
+        <c:axId val="92913664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169822464"/>
+        <c:crossAx val="92911872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,7 +1269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$2</c:f>
+              <c:f>Sheet3!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1279,7 +1278,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$D$1</c:f>
+              <c:f>Sheet3!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1288,7 +1287,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:f>Sheet3!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1301,7 +1300,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$3</c:f>
+              <c:f>Sheet3!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1310,7 +1309,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$D$1</c:f>
+              <c:f>Sheet3!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1319,7 +1318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$3:$D$3</c:f>
+              <c:f>Sheet3!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1336,11 +1335,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170459904"/>
-        <c:axId val="170461440"/>
+        <c:axId val="93348608"/>
+        <c:axId val="93350144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170459904"/>
+        <c:axId val="93348608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170461440"/>
+        <c:crossAx val="93350144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1358,7 +1357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170461440"/>
+        <c:axId val="93350144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170459904"/>
+        <c:crossAx val="93348608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,7 +1415,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$2</c:f>
+              <c:f>Sheet4!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1425,7 +1424,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$B$1:$D$1</c:f>
+              <c:f>Sheet4!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1434,7 +1433,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$2:$D$2</c:f>
+              <c:f>Sheet4!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1447,7 +1446,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$A$3</c:f>
+              <c:f>Sheet4!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1456,7 +1455,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet4!$B$1:$D$1</c:f>
+              <c:f>Sheet4!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1465,7 +1464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$3:$D$3</c:f>
+              <c:f>Sheet4!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1482,11 +1481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170511360"/>
-        <c:axId val="170525440"/>
+        <c:axId val="93469696"/>
+        <c:axId val="93475584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170511360"/>
+        <c:axId val="93469696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170525440"/>
+        <c:crossAx val="93475584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1504,7 +1503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170525440"/>
+        <c:axId val="93475584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170511360"/>
+        <c:crossAx val="93469696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,7 +1561,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$2</c:f>
+              <c:f>Sheet5!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1571,7 +1570,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet5!$B$1:$D$1</c:f>
+              <c:f>Sheet5!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1580,7 +1579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$2:$D$2</c:f>
+              <c:f>Sheet5!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1593,7 +1592,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$A$3</c:f>
+              <c:f>Sheet5!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1602,7 +1601,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet5!$B$1:$D$1</c:f>
+              <c:f>Sheet5!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1611,7 +1610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$B$3:$D$3</c:f>
+              <c:f>Sheet5!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1628,11 +1627,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170568320"/>
-        <c:axId val="170578304"/>
+        <c:axId val="94833280"/>
+        <c:axId val="94843264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170568320"/>
+        <c:axId val="94833280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170578304"/>
+        <c:crossAx val="94843264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1650,7 +1649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170578304"/>
+        <c:axId val="94843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,13 +1660,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170568320"/>
+        <c:crossAx val="94833280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1708,7 +1708,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$A$2</c:f>
+              <c:f>Sheet6!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1717,7 +1717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$B$1:$D$1</c:f>
+              <c:f>Sheet6!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1726,7 +1726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$2:$D$2</c:f>
+              <c:f>Sheet6!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1739,7 +1739,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$A$3</c:f>
+              <c:f>Sheet6!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1748,7 +1748,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$B$1:$D$1</c:f>
+              <c:f>Sheet6!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1757,7 +1757,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$3:$D$3</c:f>
+              <c:f>Sheet6!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1774,11 +1774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170640896"/>
-        <c:axId val="170642432"/>
+        <c:axId val="94909952"/>
+        <c:axId val="94911488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170640896"/>
+        <c:axId val="94909952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170642432"/>
+        <c:crossAx val="94911488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1796,7 +1796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170642432"/>
+        <c:axId val="94911488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170640896"/>
+        <c:crossAx val="94909952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1854,7 +1854,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$A$2</c:f>
+              <c:f>Sheet7!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1863,7 +1863,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet7!$B$1:$D$1</c:f>
+              <c:f>Sheet7!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1872,7 +1872,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$B$2:$D$2</c:f>
+              <c:f>Sheet7!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1885,7 +1885,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$A$3</c:f>
+              <c:f>Sheet7!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1894,7 +1894,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet7!$B$1:$D$1</c:f>
+              <c:f>Sheet7!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1903,7 +1903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$B$3:$D$3</c:f>
+              <c:f>Sheet7!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1920,11 +1920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170680320"/>
-        <c:axId val="170681856"/>
+        <c:axId val="94945280"/>
+        <c:axId val="94946816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170680320"/>
+        <c:axId val="94945280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170681856"/>
+        <c:crossAx val="94946816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +1942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170681856"/>
+        <c:axId val="94946816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170680320"/>
+        <c:crossAx val="94945280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2000,7 +2000,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$A$2</c:f>
+              <c:f>Sheet8!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2009,7 +2009,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet8!$B$1:$D$1</c:f>
+              <c:f>Sheet8!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2018,7 +2018,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$B$2:$D$2</c:f>
+              <c:f>Sheet8!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2031,7 +2031,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$A$3</c:f>
+              <c:f>Sheet8!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2040,7 +2040,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet8!$B$1:$D$1</c:f>
+              <c:f>Sheet8!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2049,7 +2049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$B$3:$D$3</c:f>
+              <c:f>Sheet8!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2066,11 +2066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170942848"/>
-        <c:axId val="170944384"/>
+        <c:axId val="99602816"/>
+        <c:axId val="99604352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170942848"/>
+        <c:axId val="99602816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170944384"/>
+        <c:crossAx val="99604352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170944384"/>
+        <c:axId val="99604352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170942848"/>
+        <c:crossAx val="99602816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2146,7 +2146,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet9!$A$2</c:f>
+              <c:f>Sheet9!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2155,7 +2155,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet9!$B$1:$D$1</c:f>
+              <c:f>Sheet9!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2164,7 +2164,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$B$2:$D$2</c:f>
+              <c:f>Sheet9!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2177,7 +2177,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet9!$A$3</c:f>
+              <c:f>Sheet9!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2186,7 +2186,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet9!$B$1:$D$1</c:f>
+              <c:f>Sheet9!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2195,7 +2195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$B$3:$D$3</c:f>
+              <c:f>Sheet9!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2212,11 +2212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170986112"/>
-        <c:axId val="171004288"/>
+        <c:axId val="99641984"/>
+        <c:axId val="99656064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170986112"/>
+        <c:axId val="99641984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171004288"/>
+        <c:crossAx val="99656064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2234,7 +2234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171004288"/>
+        <c:axId val="99656064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170986112"/>
+        <c:crossAx val="99641984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2270,16 +2270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2563,7 +2563,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2773,7 +2773,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
